--- a/Teste1.xlsx
+++ b/Teste1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C320CF86-FD65-4C9D-BF77-BDDF9799C7EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FDC80E-0346-4180-8751-4725FCDD158B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="-12660" windowWidth="16200" windowHeight="11385" xr2:uid="{6F98529A-860F-4FB9-9F70-AA6A61926269}"/>
   </bookViews>
@@ -385,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E1B83FA-DFE6-4888-B550-DF630BAFF11E}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="G5:H6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -404,6 +404,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2024</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
